--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Q.Ollison</t>
   </si>
   <si>
+    <t>O.Zaccheaus</t>
+  </si>
+  <si>
     <t>K.Smith</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>R.Gage</t>
-  </si>
-  <si>
-    <t>O.Zaccheaus</t>
   </si>
   <si>
     <t>C.Blake</t>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -601,15 +601,35 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -631,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -657,16 +677,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -683,19 +703,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -735,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -758,13 +778,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -773,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -784,22 +804,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -839,19 +859,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -865,16 +885,16 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -966,13 +986,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>

--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
     <t>O.Zaccheaus</t>
   </si>
   <si>
+    <t>L.Smith</t>
+  </si>
+  <si>
     <t>K.Smith</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>H.Hurst</t>
-  </si>
-  <si>
-    <t>L.Smith</t>
   </si>
   <si>
     <t>P.Hesse</t>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,10 +487,10 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -624,12 +624,32 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -651,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -677,19 +697,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -703,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -715,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -778,19 +798,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -830,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -856,16 +876,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -882,19 +902,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -908,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -923,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
         <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -934,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>8</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -986,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>

--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -723,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -735,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -775,11 +775,11 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -801,22 +801,22 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -827,22 +827,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -853,7 +853,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -905,22 +905,22 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
         <v>13</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -931,10 +931,10 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>1</v>

--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>T.Sharpe</t>
+  </si>
+  <si>
+    <t>M.Hall</t>
   </si>
   <si>
     <t>K.Pitts</t>
@@ -484,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -541,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -660,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -723,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -801,10 +804,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -827,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -853,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -905,22 +908,22 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -931,19 +934,19 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -954,25 +957,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -980,25 +983,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1006,24 +1009,50 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>T.Sharpe</t>
+  </si>
+  <si>
+    <t>F.Darby</t>
   </si>
   <si>
     <t>M.Hall</t>
@@ -487,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -584,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -726,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -804,22 +807,22 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -830,10 +833,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -862,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -908,13 +911,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -934,22 +937,22 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -960,22 +963,22 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -983,25 +986,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1009,25 +1012,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1035,24 +1038,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Falcons/Players Data.xlsx
+++ b/Base/Teams/Falcons/Players Data.xlsx
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>33</v>
@@ -590,13 +590,13 @@
         <v>15</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -807,22 +807,22 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -833,16 +833,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -885,19 +885,19 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -963,19 +963,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>16</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -995,10 +995,10 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1067,10 +1067,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
